--- a/translate.xlsx
+++ b/translate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="434">
   <si>
     <t>تدوير</t>
   </si>
@@ -1018,6 +1018,9 @@
   </si>
   <si>
     <t>recycle waste</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>green proudact</t>
@@ -1740,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B302"/>
+  <dimension ref="A1:C302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="B290" sqref="B290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2648,7 +2651,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:3">
       <c r="A113" s="5" t="s">
         <v>98</v>
       </c>
@@ -2656,7 +2659,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
         <v>99</v>
       </c>
@@ -2664,7 +2667,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:3">
       <c r="A115" s="5" t="s">
         <v>100</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:3">
       <c r="A116" s="5" t="s">
         <v>101</v>
       </c>
@@ -2680,7 +2683,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:3">
       <c r="A117" s="5" t="s">
         <v>102</v>
       </c>
@@ -2688,7 +2691,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:3">
       <c r="A118" s="5" t="s">
         <v>103</v>
       </c>
@@ -2696,7 +2699,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:3">
       <c r="A119" s="8" t="s">
         <v>90</v>
       </c>
@@ -2704,7 +2707,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:3">
       <c r="A120" s="8" t="s">
         <v>48</v>
       </c>
@@ -2712,7 +2715,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:3">
       <c r="A121" s="8" t="s">
         <v>48</v>
       </c>
@@ -2720,15 +2723,18 @@
         <v>284</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:3">
       <c r="A122" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B122" t="s">
+        <v>334</v>
+      </c>
+      <c r="C122" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:3">
       <c r="A123" s="8" t="s">
         <v>105</v>
       </c>
@@ -2736,7 +2742,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:3">
       <c r="A124" s="4" t="s">
         <v>106</v>
       </c>
@@ -2744,7 +2750,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:3">
       <c r="A125" s="4" t="s">
         <v>58</v>
       </c>
@@ -2752,28 +2758,28 @@
         <v>306</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:3">
       <c r="A126" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B126" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B127" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B128" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2797,7 +2803,7 @@
         <v>112</v>
       </c>
       <c r="B131" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2805,7 +2811,7 @@
         <v>113</v>
       </c>
       <c r="B132" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2821,7 +2827,7 @@
         <v>115</v>
       </c>
       <c r="B134" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2845,7 +2851,7 @@
         <v>118</v>
       </c>
       <c r="B137" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2861,7 +2867,7 @@
         <v>120</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2877,7 +2883,7 @@
         <v>122</v>
       </c>
       <c r="B141" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2885,7 +2891,7 @@
         <v>123</v>
       </c>
       <c r="B142" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2893,7 +2899,7 @@
         <v>124</v>
       </c>
       <c r="B143" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2901,7 +2907,7 @@
         <v>125</v>
       </c>
       <c r="B144" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2909,7 +2915,7 @@
         <v>126</v>
       </c>
       <c r="B145" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2917,7 +2923,7 @@
         <v>127</v>
       </c>
       <c r="B146" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2925,7 +2931,7 @@
         <v>128</v>
       </c>
       <c r="B147" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2933,7 +2939,7 @@
         <v>129</v>
       </c>
       <c r="B148" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2941,7 +2947,7 @@
         <v>130</v>
       </c>
       <c r="B149" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2949,7 +2955,7 @@
         <v>131</v>
       </c>
       <c r="B150" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2957,7 +2963,7 @@
         <v>132</v>
       </c>
       <c r="B151" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2965,7 +2971,7 @@
         <v>133</v>
       </c>
       <c r="B152" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2973,7 +2979,7 @@
         <v>134</v>
       </c>
       <c r="B153" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2981,7 +2987,7 @@
         <v>135</v>
       </c>
       <c r="B154" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2989,7 +2995,7 @@
         <v>136</v>
       </c>
       <c r="B155" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2997,7 +3003,7 @@
         <v>137</v>
       </c>
       <c r="B156" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3005,7 +3011,7 @@
         <v>138</v>
       </c>
       <c r="B157" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3013,7 +3019,7 @@
         <v>139</v>
       </c>
       <c r="B158" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3021,7 +3027,7 @@
         <v>140</v>
       </c>
       <c r="B159" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3029,7 +3035,7 @@
         <v>141</v>
       </c>
       <c r="B160" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3037,7 +3043,7 @@
         <v>142</v>
       </c>
       <c r="B161" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3045,7 +3051,7 @@
         <v>143</v>
       </c>
       <c r="B162" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3053,7 +3059,7 @@
         <v>144</v>
       </c>
       <c r="B163" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3061,7 +3067,7 @@
         <v>145</v>
       </c>
       <c r="B164" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3069,7 +3075,7 @@
         <v>146</v>
       </c>
       <c r="B165" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3077,7 +3083,7 @@
         <v>147</v>
       </c>
       <c r="B166" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3085,7 +3091,7 @@
         <v>148</v>
       </c>
       <c r="B167" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3093,7 +3099,7 @@
         <v>149</v>
       </c>
       <c r="B168" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3101,7 +3107,7 @@
         <v>150</v>
       </c>
       <c r="B169" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3109,7 +3115,7 @@
         <v>151</v>
       </c>
       <c r="B170" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3117,7 +3123,7 @@
         <v>152</v>
       </c>
       <c r="B171" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3125,7 +3131,7 @@
         <v>153</v>
       </c>
       <c r="B172" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3133,7 +3139,7 @@
         <v>154</v>
       </c>
       <c r="B173" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3141,7 +3147,7 @@
         <v>155</v>
       </c>
       <c r="B174" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3149,7 +3155,7 @@
         <v>156</v>
       </c>
       <c r="B175" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3157,7 +3163,7 @@
         <v>157</v>
       </c>
       <c r="B176" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3165,7 +3171,7 @@
         <v>158</v>
       </c>
       <c r="B177" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3173,7 +3179,7 @@
         <v>159</v>
       </c>
       <c r="B178" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3181,7 +3187,7 @@
         <v>160</v>
       </c>
       <c r="B179" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3189,7 +3195,7 @@
         <v>161</v>
       </c>
       <c r="B180" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3197,7 +3203,7 @@
         <v>162</v>
       </c>
       <c r="B181" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3205,7 +3211,7 @@
         <v>163</v>
       </c>
       <c r="B182" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3213,7 +3219,7 @@
         <v>164</v>
       </c>
       <c r="B183" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3221,7 +3227,7 @@
         <v>165</v>
       </c>
       <c r="B184" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3229,7 +3235,7 @@
         <v>166</v>
       </c>
       <c r="B185" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3237,7 +3243,7 @@
         <v>167</v>
       </c>
       <c r="B186" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3245,7 +3251,7 @@
         <v>168</v>
       </c>
       <c r="B187" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3253,7 +3259,7 @@
         <v>169</v>
       </c>
       <c r="B188" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3261,7 +3267,7 @@
         <v>170</v>
       </c>
       <c r="B189" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3269,7 +3275,7 @@
         <v>171</v>
       </c>
       <c r="B190" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3277,7 +3283,7 @@
         <v>172</v>
       </c>
       <c r="B191" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3285,7 +3291,7 @@
         <v>173</v>
       </c>
       <c r="B192" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3293,7 +3299,7 @@
         <v>174</v>
       </c>
       <c r="B193" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3301,7 +3307,7 @@
         <v>175</v>
       </c>
       <c r="B194" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3309,7 +3315,7 @@
         <v>176</v>
       </c>
       <c r="B195" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3317,7 +3323,7 @@
         <v>177</v>
       </c>
       <c r="B196" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3325,7 +3331,7 @@
         <v>178</v>
       </c>
       <c r="B197" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3333,7 +3339,7 @@
         <v>179</v>
       </c>
       <c r="B198" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3341,7 +3347,7 @@
         <v>180</v>
       </c>
       <c r="B199" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3349,7 +3355,7 @@
         <v>181</v>
       </c>
       <c r="B200" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3357,7 +3363,7 @@
         <v>182</v>
       </c>
       <c r="B201" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3365,7 +3371,7 @@
         <v>183</v>
       </c>
       <c r="B202" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3373,7 +3379,7 @@
         <v>184</v>
       </c>
       <c r="B203" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3381,7 +3387,7 @@
         <v>185</v>
       </c>
       <c r="B204" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3389,7 +3395,7 @@
         <v>186</v>
       </c>
       <c r="B205" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3397,7 +3403,7 @@
         <v>187</v>
       </c>
       <c r="B206" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3405,7 +3411,7 @@
         <v>188</v>
       </c>
       <c r="B207" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3413,7 +3419,7 @@
         <v>189</v>
       </c>
       <c r="B208" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3421,7 +3427,7 @@
         <v>190</v>
       </c>
       <c r="B209" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3429,7 +3435,7 @@
         <v>129</v>
       </c>
       <c r="B210" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3437,7 +3443,7 @@
         <v>191</v>
       </c>
       <c r="B211" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3445,7 +3451,7 @@
         <v>192</v>
       </c>
       <c r="B212" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3453,7 +3459,7 @@
         <v>193</v>
       </c>
       <c r="B213" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3461,7 +3467,7 @@
         <v>194</v>
       </c>
       <c r="B214" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3469,7 +3475,7 @@
         <v>195</v>
       </c>
       <c r="B215" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3477,7 +3483,7 @@
         <v>196</v>
       </c>
       <c r="B216" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3485,7 +3491,7 @@
         <v>197</v>
       </c>
       <c r="B217" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3493,7 +3499,7 @@
         <v>198</v>
       </c>
       <c r="B218" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3501,7 +3507,7 @@
         <v>199</v>
       </c>
       <c r="B219" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3509,7 +3515,7 @@
         <v>200</v>
       </c>
       <c r="B220" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3517,7 +3523,7 @@
         <v>201</v>
       </c>
       <c r="B221" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3525,7 +3531,7 @@
         <v>202</v>
       </c>
       <c r="B222" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3533,7 +3539,7 @@
         <v>203</v>
       </c>
       <c r="B223" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3541,7 +3547,7 @@
         <v>204</v>
       </c>
       <c r="B224" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3549,7 +3555,7 @@
         <v>190</v>
       </c>
       <c r="B225" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3557,7 +3563,7 @@
         <v>205</v>
       </c>
       <c r="B226" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3565,7 +3571,7 @@
         <v>206</v>
       </c>
       <c r="B227" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3573,7 +3579,7 @@
         <v>207</v>
       </c>
       <c r="B228" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3581,7 +3587,7 @@
         <v>208</v>
       </c>
       <c r="B229" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3589,7 +3595,7 @@
         <v>209</v>
       </c>
       <c r="B230" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3597,7 +3603,7 @@
         <v>210</v>
       </c>
       <c r="B231" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3605,7 +3611,7 @@
         <v>211</v>
       </c>
       <c r="B232" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3613,7 +3619,7 @@
         <v>212</v>
       </c>
       <c r="B233" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3621,7 +3627,7 @@
         <v>213</v>
       </c>
       <c r="B234" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3629,7 +3635,7 @@
         <v>214</v>
       </c>
       <c r="B235" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3637,7 +3643,7 @@
         <v>215</v>
       </c>
       <c r="B236" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3645,7 +3651,7 @@
         <v>216</v>
       </c>
       <c r="B237" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3653,7 +3659,7 @@
         <v>217</v>
       </c>
       <c r="B238" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3661,7 +3667,7 @@
         <v>218</v>
       </c>
       <c r="B239" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3669,7 +3675,7 @@
         <v>219</v>
       </c>
       <c r="B240" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3677,7 +3683,7 @@
         <v>220</v>
       </c>
       <c r="B241" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3685,7 +3691,7 @@
         <v>214</v>
       </c>
       <c r="B242" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3693,7 +3699,7 @@
         <v>215</v>
       </c>
       <c r="B243" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3701,7 +3707,7 @@
         <v>216</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3709,7 +3715,7 @@
         <v>221</v>
       </c>
       <c r="B245" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3717,7 +3723,7 @@
         <v>222</v>
       </c>
       <c r="B246" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3725,7 +3731,7 @@
         <v>183</v>
       </c>
       <c r="B247" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3733,7 +3739,7 @@
         <v>223</v>
       </c>
       <c r="B248" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3741,7 +3747,7 @@
         <v>187</v>
       </c>
       <c r="B249" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3749,7 +3755,7 @@
         <v>224</v>
       </c>
       <c r="B250" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3757,7 +3763,7 @@
         <v>225</v>
       </c>
       <c r="B251" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3765,7 +3771,7 @@
         <v>226</v>
       </c>
       <c r="B252" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3773,7 +3779,7 @@
         <v>227</v>
       </c>
       <c r="B253" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3781,7 +3787,7 @@
         <v>228</v>
       </c>
       <c r="B254" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3789,7 +3795,7 @@
         <v>229</v>
       </c>
       <c r="B255" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3797,7 +3803,7 @@
         <v>230</v>
       </c>
       <c r="B256" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3805,7 +3811,7 @@
         <v>231</v>
       </c>
       <c r="B257" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3813,7 +3819,7 @@
         <v>214</v>
       </c>
       <c r="B258" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3821,7 +3827,7 @@
         <v>232</v>
       </c>
       <c r="B259" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3829,7 +3835,7 @@
         <v>233</v>
       </c>
       <c r="B260" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3837,7 +3843,7 @@
         <v>234</v>
       </c>
       <c r="B261" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3845,7 +3851,7 @@
         <v>235</v>
       </c>
       <c r="B262" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3853,7 +3859,7 @@
         <v>236</v>
       </c>
       <c r="B263" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3861,7 +3867,7 @@
         <v>237</v>
       </c>
       <c r="B264" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3869,7 +3875,7 @@
         <v>238</v>
       </c>
       <c r="B265" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3877,7 +3883,7 @@
         <v>239</v>
       </c>
       <c r="B266" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3885,7 +3891,7 @@
         <v>240</v>
       </c>
       <c r="B267" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3893,7 +3899,7 @@
         <v>241</v>
       </c>
       <c r="B268" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3901,7 +3907,7 @@
         <v>242</v>
       </c>
       <c r="B269" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3909,7 +3915,7 @@
         <v>243</v>
       </c>
       <c r="B270" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3917,7 +3923,7 @@
         <v>244</v>
       </c>
       <c r="B271" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3925,7 +3931,7 @@
         <v>245</v>
       </c>
       <c r="B272" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3933,7 +3939,7 @@
         <v>246</v>
       </c>
       <c r="B273" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3941,7 +3947,7 @@
         <v>247</v>
       </c>
       <c r="B274" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3949,7 +3955,7 @@
         <v>248</v>
       </c>
       <c r="B275" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3957,7 +3963,7 @@
         <v>249</v>
       </c>
       <c r="B276" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3965,7 +3971,7 @@
         <v>250</v>
       </c>
       <c r="B277" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3973,7 +3979,7 @@
         <v>251</v>
       </c>
       <c r="B278" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3981,7 +3987,7 @@
         <v>252</v>
       </c>
       <c r="B279" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3989,7 +3995,7 @@
         <v>253</v>
       </c>
       <c r="B280" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3997,7 +4003,7 @@
         <v>254</v>
       </c>
       <c r="B281" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4005,7 +4011,7 @@
         <v>255</v>
       </c>
       <c r="B282" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4013,7 +4019,7 @@
         <v>256</v>
       </c>
       <c r="B283" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4021,7 +4027,7 @@
         <v>257</v>
       </c>
       <c r="B284" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4029,7 +4035,7 @@
         <v>258</v>
       </c>
       <c r="B285" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4037,7 +4043,7 @@
         <v>259</v>
       </c>
       <c r="B286" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4045,7 +4051,7 @@
         <v>260</v>
       </c>
       <c r="B287" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4053,7 +4059,7 @@
         <v>261</v>
       </c>
       <c r="B288" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4061,7 +4067,7 @@
         <v>262</v>
       </c>
       <c r="B289" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4069,7 +4075,7 @@
         <v>263</v>
       </c>
       <c r="B290" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4077,7 +4083,7 @@
         <v>264</v>
       </c>
       <c r="B291" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4085,7 +4091,7 @@
         <v>265</v>
       </c>
       <c r="B292" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4125,7 +4131,7 @@
         <v>270</v>
       </c>
       <c r="B297" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4133,7 +4139,7 @@
         <v>271</v>
       </c>
       <c r="B298" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4149,7 +4155,7 @@
         <v>272</v>
       </c>
       <c r="B300" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4157,7 +4163,7 @@
         <v>273</v>
       </c>
       <c r="B301" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4165,7 +4171,7 @@
         <v>274</v>
       </c>
       <c r="B302" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
